--- a/SeedData/carsExcell.xlsx
+++ b/SeedData/carsExcell.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhunanyan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cee102ce734bd06c/Desktop/AGH/sem4/PZ2/projects/dream-car/SeedData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E3C702-05AE-475C-88E3-F7D862A06AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{35E3C702-05AE-475C-88E3-F7D862A06AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CDDC1D2-9C50-47B9-BA5A-C25DA42500BE}"/>
   <bookViews>
-    <workbookView xWindow="-9610" yWindow="170" windowWidth="19180" windowHeight="10180" xr2:uid="{78696D1B-7636-4223-996B-E9CA84C29627}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78696D1B-7636-4223-996B-E9CA84C29627}"/>
   </bookViews>
   <sheets>
     <sheet name="cars" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'cars'!$A$1:$T$118</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'cars'!$A$1:$T$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="573">
   <si>
     <t>Column1</t>
   </si>
@@ -334,9 +334,6 @@
     <t>2261</t>
   </si>
   <si>
-    <t>LINK</t>
-  </si>
-  <si>
     <t>1900</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
     <t>6</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>kamilhanzel_0</t>
   </si>
   <si>
@@ -955,9 +949,6 @@
     <t>Karoq</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>#Skoda #Skoda2019</t>
   </si>
   <si>
@@ -1303,9 +1294,6 @@
     <t>Ghibli</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>4600</t>
   </si>
   <si>
@@ -1538,16 +1526,264 @@
   </si>
   <si>
     <t>#Mercedes-Benz #Amg #AmgGT</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fabrampiotr_0.png?alt=media&amp;token=7a8e13b9-a812-4eb3-b319-4003671c0e77</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fabrampiotr_1.png?alt=media&amp;token=e8fd0db6-8657-4fe0-b000-6a37b2338ec1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fabrampiotr_2.png?alt=media&amp;token=0b46bb22-f1b8-4463-a384-c188bdae2e6f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fadamdudek_0.png?alt=media&amp;token=7f514952-b053-43c8-a404-23ef73a85990</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fadamdudek_1.png?alt=media&amp;token=98f4cb58-3ea2-4e0c-8139-e12718250aca</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fadamgabor_0.png?alt=media&amp;token=4ae8369f-c2a7-4866-9319-5b0851a9e2c9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fadamgabor_1.png?alt=media&amp;token=7d4f289a-0223-4326-bb7b-676949f70c51</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fadamgabor_2.png?alt=media&amp;token=8f512e7e-781e-43db-9320-e8c21ae814d2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fadrienbastien_0.png?alt=media&amp;token=00f6f681-03d4-4a2b-881b-969f4ae99820</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fadrienbastien_1.png?alt=media&amp;token=af2dd416-1ea1-406c-a8b6-c2f3686ccd86</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fadrienbastien_2.png?alt=media&amp;token=14eb47cc-5174-414a-bbe2-14cdc1d93308</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fadrienbastien_3.png?alt=media&amp;token=d184de2d-c5ce-4d22-b860-b8c01d9be3c2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fadrienbastien_4.png?alt=media&amp;token=b94e87fd-ca07-4dd2-a71a-8ab4c957f76f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fagnieszkawachnik_0.png?alt=media&amp;token=d0261264-aef8-4aa8-9ff9-b90a3498299a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fagnieszkawachnik_1.png?alt=media&amp;token=7f62f915-4b99-467a-bb99-737343be7243</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Farthurblaise_0.png?alt=media&amp;token=20eaa615-01b6-47dd-97ea-466cef952ec9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Farthurblaise_1.png?alt=media&amp;token=a8370d27-3093-4c5b-8711-beed2299ded7</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Farthurblaise_2.png?alt=media&amp;token=588a6c37-1eb6-4fb2-b631-d273c008adbd</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fcamilleandre_0.png?alt=media&amp;token=b201766c-39a7-4e6b-a7b6-8e3a93e57473</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fcamilleandre_1.png?alt=media&amp;token=3daf4312-02a8-41b1-b210-9c3b1da5943d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fcamilleandre_2.png?alt=media&amp;token=2cd4cf98-2249-4167-9a21-e0bff7412545</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Femmaschmidt_0.png?alt=media&amp;token=e2a58265-2994-4de1-8a02-40c742501b6f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Femmaschmidt_1.png?alt=media&amp;token=4a496d22-69f8-41d5-acf8-0925cdfef4fa</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Femmaschmidt_2.png?alt=media&amp;token=bbc94f20-b9ea-4fb1-89d5-c056d9108114</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Ffilipedel_0.png?alt=media&amp;token=371602c2-6962-4116-bc47-2a96f997233f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Ffilipedel_1.png?alt=media&amp;token=47adbe8d-c8c1-4bae-8d2e-b4d9af1a3153</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fhannafischer_0.png?alt=media&amp;token=b8b1bf1b-024b-4f7f-9e3e-57822a9f99d1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fhannafischer_1.png?alt=media&amp;token=c131df9f-8bfb-4f76-99c7-44bff0cd81cb</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fhannafischer_2.png?alt=media&amp;token=c0633963-f542-4550-80b6-1958a338fa47</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fhannafischer_3.png?alt=media&amp;token=8440bfff-7207-41b7-aa6d-294cb11a920d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fjacobsclaes_0.png?alt=media&amp;token=ede9177c-b9e5-4f77-81a4-99fe10847dad</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fjacobsclaes_1.png?alt=media&amp;token=46b973b4-1fd0-4356-a1d6-c2825fec004d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fjacobsclaes_2.png?alt=media&amp;token=052d60f5-9603-4edf-91d0-ee111ad68f2d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fjacobsclaes_3.png?alt=media&amp;token=bd5a8d41-2b36-4142-9e29-961fa22e1dc4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fjacobsclaes_4.png?alt=media&amp;token=989ac4bc-5a0e-4979-95c6-1abb87a9c5bf</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fkamilhanzel_0.png?alt=media&amp;token=f50fbb17-042f-454b-ab00-f110e0b26f1d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fkamilhanzel_1.png?alt=media&amp;token=63a6e813-a7cb-4f9f-8e9d-75d31cc78821</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fkamilhanzel_2.png?alt=media&amp;token=4a505df2-a230-49fb-a7d8-462357a2af8a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fkarolinanaborczyk_0.png?alt=media&amp;token=5ef98914-3c4b-41c5-93db-53a280993ca0</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fkarolinanaborczyk_1.png?alt=media&amp;token=1c2dff10-0639-4e02-b0ee-1399f3909ad2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fkarolinanaborczyk_2.png?alt=media&amp;token=9d7ccbab-b296-433c-9db6-04c17eb866cb</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fkfabianowicz_0.png?alt=media&amp;token=cd04d963-b988-4899-8948-ec2bbf4fbd1a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fkfabianowicz_1.png?alt=media&amp;token=01790efa-eee8-44dc-8214-eaf41ad04745</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmarekgurgul_0.png?alt=media&amp;token=f05af9f0-8a2f-4a6e-8ac3-821a0f3e2bc1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmarekgurgul_1.png?alt=media&amp;token=3cfb1e8a-d86b-48e3-8174-8370eae82e22</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmateuszbiernat_0.png?alt=media&amp;token=ea15b098-cacb-40b3-8a36-ac70be6f4ab1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmateuszbiernat_1.png?alt=media&amp;token=3e3aa33a-bd0e-49d4-af3f-40266eff28ea</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmateuszpiotrowski_0.png?alt=media&amp;token=795da77c-d38e-40a2-bd15-1fa0f0aa89b4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmatyldadachowska_0.png?alt=media&amp;token=16f0c442-d073-4ed1-8637-ba45b90b6c33</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmatyldadachowska_1.png?alt=media&amp;token=0213d98a-f125-4736-84f8-30087eed00ce</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmatyldadachowska_2.png?alt=media&amp;token=53e3601e-65ae-4978-be7b-32ba5ec3bfba</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmatyldadachowska_3.png?alt=media&amp;token=0cf0a03a-0e72-4fd4-a024-dde65af5aba6</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmertenswillems_0.png?alt=media&amp;token=88d60047-9a6a-4f87-ad47-49f32cbf681f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmertenswillems_1.png?alt=media&amp;token=5d11bf57-3ef2-4268-ab9d-8c8ed6b20f50</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmertenswillems_2.png?alt=media&amp;token=de80b088-2f50-42da-b83d-a5604ad62531</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmertenswillems_3.png?alt=media&amp;token=cfeab8e3-550e-4f4c-b130-dbb96eaadeb9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fmertenswillems_4.png?alt=media&amp;token=4f3c6953-daf6-4f02-8f95-a13c670708ce</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fnikodemb_0.png?alt=media&amp;token=c2713df2-d0de-4d8f-b64c-050238308256</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fnoahmeyer_0.png?alt=media&amp;token=647e23cd-ff2b-4e2a-b9ac-d3218bd60fcd</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fnoahmeyer_1.png?alt=media&amp;token=0a4e3cf5-c64d-4011-8112-75daa924b50d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fnoahmeyer_2.png?alt=media&amp;token=15b60177-07b7-47cb-859f-3f2cd0b5846c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Foliwiernowak_0.png?alt=media&amp;token=435b7417-b3cf-4646-8393-28ff5c81e9e6</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Foliwiernowak_1.png?alt=media&amp;token=450b1092-f15a-4a7f-860b-ba33d7d39011</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Foliwiernowak_2.png?alt=media&amp;token=91db8b54-39b7-483d-89a2-cf93e4bef25a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fpatrykbieda_0.png?alt=media&amp;token=d5062d34-4ae6-4e6b-94ff-6f99a660b3ca</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fpatrykbieda_1.png?alt=media&amp;token=ba3ed2ab-ecbf-416f-b8f3-0cf1d54e6897</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fpatrykbieda_2.png?alt=media&amp;token=7fe13418-61c6-486a-b6fe-ced6d68ff77d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fpaulinaduda_0.png?alt=media&amp;token=33cc731c-b97d-4bc5-bf13-59b5a609fa47</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fpaulinaduda_1.png?alt=media&amp;token=763bc90f-d2a1-4f15-b729-e128125e36d4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fpaulschneider_0.png?alt=media&amp;token=eb647cc3-9995-4e8d-ad84-c84c84e7e0d8</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fpaulschneider_1.png?alt=media&amp;token=e4cdfbdb-8e0b-499d-8c15-a2c4698adf65</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fpeetersmaes_0.png?alt=media&amp;token=9dc5132c-e21d-47ef-a657-f71add03c6fd</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fpeetersmaes_1.png?alt=media&amp;token=f1c7600e-537c-4b62-b402-6b0781f1ad52</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fpeetersmaes_2.png?alt=media&amp;token=ee09a1b9-b6ca-4143-8cee-07972693c456</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fpeetersmaes_3.png?alt=media&amp;token=979dc480-3339-41cb-820c-8606dbc534bc</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fpeetersmaes_4.png?alt=media&amp;token=e05950c6-0aa3-457f-98ef-8e8acf4206e1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fradekbabecki_0.png?alt=media&amp;token=4bbc60ff-389f-46dc-aeda-5b118fedc4b7</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Fradekbabecki_1.png?alt=media&amp;token=1d1c8f2c-ce9f-47bf-b639-4bb8d76bbd20</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Ftomekgolonka_0.png?alt=media&amp;token=a2d05594-1759-4b24-bbf8-2b2913c8588b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/dreamcar-d63e5.appspot.com/o/Images%2Ftomekgolonka_1.png?alt=media&amp;token=83bdd056-f752-4785-8830-c3d5276febf2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1570,18 +1806,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
@@ -1679,8 +1918,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25626A6A-4FA1-445D-9E76-8CF746CEB8FE}" name="cars" displayName="cars" ref="A1:T118" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T118" xr:uid="{25626A6A-4FA1-445D-9E76-8CF746CEB8FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25626A6A-4FA1-445D-9E76-8CF746CEB8FE}" name="cars" displayName="cars" ref="A1:T89" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T89" xr:uid="{25626A6A-4FA1-445D-9E76-8CF746CEB8FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T89">
+    <sortCondition ref="A1:A89"/>
+  </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{355235CF-65E4-4FE1-8662-BF2F9C49FD09}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{6BD3AB5F-5B6E-41C5-8DCE-506F6DE3EE8C}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="16"/>
@@ -2004,31 +2246,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B276C1-1BF9-4C7E-8859-200C905B3145}">
-  <dimension ref="A1:T118"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +2332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2124,7 +2366,7 @@
       <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -2152,7 +2394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2186,7 +2428,7 @@
       <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -2214,7 +2456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2248,7 +2490,7 @@
       <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -2276,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2310,7 +2552,7 @@
       <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="4" t="s">
         <v>55</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -2338,7 +2580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2372,7 +2614,7 @@
       <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="4" t="s">
         <v>63</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -2400,7 +2642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2434,7 +2676,7 @@
       <c r="K7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="4" t="s">
         <v>72</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -2462,7 +2704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2496,7 +2738,7 @@
       <c r="K8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="4" t="s">
         <v>79</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -2524,7 +2766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2558,7 +2800,7 @@
       <c r="K9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="4" t="s">
         <v>87</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -2586,7 +2828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2620,14 +2862,14 @@
       <c r="K10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="O10" s="2">
         <v>44683</v>
@@ -2642,13 +2884,13 @@
         <v>32</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2659,37 +2901,37 @@
         <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="H11">
         <v>2018</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>95</v>
+      <c r="L11" s="4" t="s">
+        <v>537</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="O11" s="2">
         <v>44717</v>
@@ -2704,13 +2946,13 @@
         <v>32</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2721,16 +2963,16 @@
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="H12">
         <v>2014</v>
@@ -2744,14 +2986,14 @@
       <c r="K12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>95</v>
+      <c r="L12" s="4" t="s">
+        <v>554</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="O12" s="2">
         <v>44696</v>
@@ -2766,13 +3008,13 @@
         <v>32</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2783,7 +3025,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>77</v>
@@ -2806,14 +3048,14 @@
       <c r="K13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>95</v>
+      <c r="L13" s="4" t="s">
+        <v>555</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="O13" s="2">
         <v>44694</v>
@@ -2828,13 +3070,13 @@
         <v>32</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2845,16 +3087,16 @@
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="H14">
         <v>2014</v>
@@ -2863,19 +3105,19 @@
         <v>38</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>95</v>
+      <c r="L14" s="4" t="s">
+        <v>556</v>
       </c>
       <c r="M14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="O14" s="2">
         <v>44689</v>
@@ -2890,13 +3132,13 @@
         <v>32</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2904,19 +3146,19 @@
         <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="H15">
         <v>2006</v>
@@ -2925,19 +3167,19 @@
         <v>38</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="O15" s="2">
         <v>44689</v>
@@ -2952,13 +3194,13 @@
         <v>32</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2966,19 +3208,19 @@
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="H16">
         <v>2016</v>
@@ -2992,14 +3234,14 @@
       <c r="K16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>95</v>
+      <c r="L16" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="O16" s="2">
         <v>44695</v>
@@ -3014,13 +3256,13 @@
         <v>0</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3031,16 +3273,16 @@
         <v>90</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H17">
         <v>2017</v>
@@ -3054,14 +3296,14 @@
       <c r="K17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>95</v>
+      <c r="L17" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O17" s="2">
         <v>44697</v>
@@ -3076,13 +3318,13 @@
         <v>32</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3093,16 +3335,16 @@
         <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H18">
         <v>2010</v>
@@ -3111,19 +3353,19 @@
         <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O18" s="2">
         <v>44686</v>
@@ -3138,13 +3380,13 @@
         <v>32</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3155,16 +3397,16 @@
         <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H19">
         <v>2017</v>
@@ -3178,14 +3420,14 @@
       <c r="K19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>95</v>
+      <c r="L19" s="4" t="s">
+        <v>530</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O19" s="2">
         <v>44700</v>
@@ -3200,13 +3442,13 @@
         <v>32</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T19">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3214,19 +3456,19 @@
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H20">
         <v>2017</v>
@@ -3240,14 +3482,14 @@
       <c r="K20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>95</v>
+      <c r="L20" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O20" s="2">
         <v>44694</v>
@@ -3262,13 +3504,13 @@
         <v>32</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T20">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3276,19 +3518,19 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="H21">
         <v>2019</v>
@@ -3300,16 +3542,16 @@
         <v>27</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>162</v>
+        <v>126</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1200</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O21" s="2">
         <v>44700</v>
@@ -3324,13 +3566,13 @@
         <v>32</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T21">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3338,10 +3580,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>35</v>
@@ -3350,7 +3592,7 @@
         <v>36</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H22">
         <v>2014</v>
@@ -3364,14 +3606,14 @@
       <c r="K22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>95</v>
+      <c r="L22" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O22" s="2">
         <v>44702</v>
@@ -3386,13 +3628,13 @@
         <v>32</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T22">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3400,25 +3642,25 @@
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H23">
         <v>2019</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>27</v>
@@ -3426,14 +3668,14 @@
       <c r="K23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>95</v>
+      <c r="L23" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O23" s="2">
         <v>44686</v>
@@ -3448,13 +3690,13 @@
         <v>32</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3462,25 +3704,25 @@
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H24">
         <v>2020</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>27</v>
@@ -3488,14 +3730,14 @@
       <c r="K24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="N24" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O24" s="2">
         <v>44686</v>
@@ -3510,13 +3752,13 @@
         <v>32</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="T24">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3524,19 +3766,19 @@
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H25">
         <v>2016</v>
@@ -3550,14 +3792,14 @@
       <c r="K25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>95</v>
+      <c r="L25" s="4" t="s">
+        <v>494</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O25" s="2">
         <v>44690</v>
@@ -3572,13 +3814,13 @@
         <v>32</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="T25">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3586,40 +3828,40 @@
         <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H26">
         <v>2018</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>95</v>
+      <c r="L26" s="4" t="s">
+        <v>495</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O26" s="2">
         <v>44684</v>
@@ -3634,13 +3876,13 @@
         <v>32</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="T26">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3648,25 +3890,25 @@
         <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H27">
         <v>2020</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>27</v>
@@ -3674,14 +3916,14 @@
       <c r="K27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>95</v>
+      <c r="L27" s="4" t="s">
+        <v>569</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O27" s="2">
         <v>44688</v>
@@ -3696,13 +3938,13 @@
         <v>32</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T27">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3710,25 +3952,25 @@
         <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H28">
         <v>2018</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>27</v>
@@ -3736,14 +3978,14 @@
       <c r="K28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>95</v>
+      <c r="L28" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O28" s="2">
         <v>44690</v>
@@ -3758,13 +4000,13 @@
         <v>32</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T28">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3772,19 +4014,19 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H29">
         <v>2018</v>
@@ -3798,14 +4040,14 @@
       <c r="K29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>95</v>
+      <c r="L29" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O29" s="2">
         <v>44684</v>
@@ -3820,13 +4062,13 @@
         <v>32</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T29">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3834,40 +4076,40 @@
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H30">
         <v>2017</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>542</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O30" s="2">
         <v>44688</v>
@@ -3882,13 +4124,13 @@
         <v>32</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T30">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3896,19 +4138,19 @@
         <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="H31">
         <v>2018</v>
@@ -3920,16 +4162,16 @@
         <v>27</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>543</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O31" s="2">
         <v>44689</v>
@@ -3944,13 +4186,13 @@
         <v>32</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T31">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3958,40 +4200,40 @@
         <v>20</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H32">
         <v>2016</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O32" s="2">
         <v>44683</v>
@@ -4006,13 +4248,13 @@
         <v>32</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T32">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4020,19 +4262,19 @@
         <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H33">
         <v>2018</v>
@@ -4044,16 +4286,16 @@
         <v>27</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O33" s="2">
         <v>44682</v>
@@ -4068,13 +4310,13 @@
         <v>32</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T33">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4082,25 +4324,25 @@
         <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H34">
         <v>2018</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>27</v>
@@ -4108,14 +4350,14 @@
       <c r="K34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>95</v>
+      <c r="L34" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O34" s="2">
         <v>44683</v>
@@ -4130,13 +4372,13 @@
         <v>32</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T34">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4144,19 +4386,19 @@
         <v>20</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H35">
         <v>2019</v>
@@ -4170,14 +4412,14 @@
       <c r="K35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>95</v>
+      <c r="L35" s="4" t="s">
+        <v>498</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O35" s="2">
         <v>44686</v>
@@ -4192,13 +4434,13 @@
         <v>32</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4206,25 +4448,25 @@
         <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="H36">
         <v>2019</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>27</v>
@@ -4232,14 +4474,14 @@
       <c r="K36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>95</v>
+      <c r="L36" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O36" s="2">
         <v>44685</v>
@@ -4254,13 +4496,13 @@
         <v>32</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T36">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4268,19 +4510,19 @@
         <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H37">
         <v>2019</v>
@@ -4294,14 +4536,14 @@
       <c r="K37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>95</v>
+      <c r="L37" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O37" s="2">
         <v>44682</v>
@@ -4316,13 +4558,13 @@
         <v>32</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T37">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4330,25 +4572,25 @@
         <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H38">
         <v>2019</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>27</v>
@@ -4356,14 +4598,14 @@
       <c r="K38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>95</v>
+      <c r="L38" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O38" s="2">
         <v>44687</v>
@@ -4378,13 +4620,13 @@
         <v>32</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T38">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4392,19 +4634,19 @@
         <v>20</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H39">
         <v>2018</v>
@@ -4418,14 +4660,14 @@
       <c r="K39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>95</v>
+      <c r="L39" s="4" t="s">
+        <v>535</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O39" s="2">
         <v>44700</v>
@@ -4440,13 +4682,13 @@
         <v>32</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T39">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4454,10 +4696,10 @@
         <v>20</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>35</v>
@@ -4466,7 +4708,7 @@
         <v>36</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H40">
         <v>2020</v>
@@ -4475,19 +4717,19 @@
         <v>38</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>95</v>
+      <c r="L40" s="4" t="s">
+        <v>538</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O40" s="2">
         <v>44690</v>
@@ -4502,13 +4744,13 @@
         <v>32</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T40">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4516,19 +4758,19 @@
         <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H41">
         <v>2020</v>
@@ -4542,14 +4784,14 @@
       <c r="K41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>95</v>
+      <c r="L41" s="4" t="s">
+        <v>539</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O41" s="2">
         <v>44686</v>
@@ -4564,13 +4806,13 @@
         <v>32</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T41">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4578,19 +4820,19 @@
         <v>20</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="H42">
         <v>2017</v>
@@ -4602,16 +4844,16 @@
         <v>27</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>557</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>56</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O42" s="2">
         <v>44682</v>
@@ -4626,13 +4868,13 @@
         <v>32</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="T42">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4640,40 +4882,40 @@
         <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H43">
         <v>2021</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>95</v>
+      <c r="L43" s="4" t="s">
+        <v>558</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O43" s="2">
         <v>44686</v>
@@ -4688,13 +4930,13 @@
         <v>32</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="T43">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4702,19 +4944,19 @@
         <v>20</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="H44">
         <v>2020</v>
@@ -4728,14 +4970,14 @@
       <c r="K44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>95</v>
+      <c r="L44" s="4" t="s">
+        <v>559</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O44" s="2">
         <v>44683</v>
@@ -4750,13 +4992,13 @@
         <v>32</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="T44">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4764,19 +5006,19 @@
         <v>20</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="H45">
         <v>2010</v>
@@ -4788,16 +5030,16 @@
         <v>27</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>56</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O45" s="2">
         <v>44684</v>
@@ -4812,13 +5054,13 @@
         <v>32</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="T45">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4826,19 +5068,19 @@
         <v>20</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="H46">
         <v>2019</v>
@@ -4850,16 +5092,16 @@
         <v>27</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O46" s="2">
         <v>44682</v>
@@ -4874,13 +5116,13 @@
         <v>32</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="T46">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4888,19 +5130,19 @@
         <v>20</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="H47">
         <v>2003</v>
@@ -4914,14 +5156,14 @@
       <c r="K47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>95</v>
+      <c r="L47" s="4" t="s">
+        <v>531</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O47" s="2">
         <v>44686</v>
@@ -4936,13 +5178,13 @@
         <v>32</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="T47">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4950,19 +5192,19 @@
         <v>20</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="H48">
         <v>2016</v>
@@ -4974,16 +5216,16 @@
         <v>27</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>532</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O48" s="2">
         <v>44687</v>
@@ -4998,13 +5240,13 @@
         <v>32</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="T48">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5012,19 +5254,19 @@
         <v>20</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H49">
         <v>2019</v>
@@ -5038,14 +5280,14 @@
       <c r="K49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>302</v>
+      <c r="L49" s="4" t="s">
+        <v>533</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O49" s="2">
         <v>44686</v>
@@ -5060,13 +5302,13 @@
         <v>32</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="T49">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5074,19 +5316,19 @@
         <v>20</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H50">
         <v>2017</v>
@@ -5100,14 +5342,14 @@
       <c r="K50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>95</v>
+      <c r="L50" s="4" t="s">
+        <v>506</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O50" s="2">
         <v>44686</v>
@@ -5122,13 +5364,13 @@
         <v>32</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="T50">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5136,25 +5378,25 @@
         <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H51">
         <v>2020</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>27</v>
@@ -5162,14 +5404,14 @@
       <c r="K51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>95</v>
+      <c r="L51" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O51" s="2">
         <v>44682</v>
@@ -5184,39 +5426,39 @@
         <v>32</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="T51">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="H52">
         <v>2019</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>27</v>
@@ -5224,14 +5466,14 @@
       <c r="K52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>95</v>
+      <c r="L52" s="4" t="s">
+        <v>519</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O52" s="2">
         <v>44690</v>
@@ -5246,33 +5488,33 @@
         <v>32</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="T52">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H53">
         <v>2018</v>
@@ -5284,16 +5526,16 @@
         <v>27</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="O53" s="2">
         <v>44698</v>
@@ -5308,33 +5550,33 @@
         <v>32</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="T53">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="H54">
         <v>2018</v>
@@ -5346,16 +5588,16 @@
         <v>27</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O54" s="2">
         <v>44694</v>
@@ -5370,33 +5612,33 @@
         <v>32</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="T54">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H55">
         <v>2018</v>
@@ -5410,14 +5652,14 @@
       <c r="K55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>95</v>
+      <c r="L55" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="O55" s="2">
         <v>44701</v>
@@ -5432,33 +5674,33 @@
         <v>32</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="T55">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="H56">
         <v>2017</v>
@@ -5472,14 +5714,14 @@
       <c r="K56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>95</v>
+      <c r="L56" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O56" s="2">
         <v>44694</v>
@@ -5494,33 +5736,33 @@
         <v>32</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="T56">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H57">
         <v>2020</v>
@@ -5534,14 +5776,14 @@
       <c r="K57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>95</v>
+      <c r="L57" s="4" t="s">
+        <v>552</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O57" s="2">
         <v>44682</v>
@@ -5556,33 +5798,33 @@
         <v>32</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="T57">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H58">
         <v>2019</v>
@@ -5596,14 +5838,14 @@
       <c r="K58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>95</v>
+      <c r="L58" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O58" s="2">
         <v>44684</v>
@@ -5618,33 +5860,33 @@
         <v>32</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="T58">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="H59">
         <v>2018</v>
@@ -5656,16 +5898,16 @@
         <v>27</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>514</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O59" s="2">
         <v>44698</v>
@@ -5680,33 +5922,33 @@
         <v>32</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="T59">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H60">
         <v>2016</v>
@@ -5718,16 +5960,16 @@
         <v>27</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>515</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="O60" s="2">
         <v>44694</v>
@@ -5742,39 +5984,39 @@
         <v>32</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="T60">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H61">
         <v>2017</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>27</v>
@@ -5782,14 +6024,14 @@
       <c r="K61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>95</v>
+      <c r="L61" s="4" t="s">
+        <v>516</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="O61" s="2">
         <v>44697</v>
@@ -5804,33 +6046,33 @@
         <v>32</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="T61">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H62">
         <v>2008</v>
@@ -5842,16 +6084,16 @@
         <v>27</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>56</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O62" s="2">
         <v>44682</v>
@@ -5866,33 +6108,33 @@
         <v>32</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="T62">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H63">
         <v>2016</v>
@@ -5904,16 +6146,16 @@
         <v>27</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="O63" s="2">
         <v>44688</v>
@@ -5928,39 +6170,39 @@
         <v>32</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="T63">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H64">
         <v>2020</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>27</v>
@@ -5968,14 +6210,14 @@
       <c r="K64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>95</v>
+      <c r="L64" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O64" s="2">
         <v>44686</v>
@@ -5990,30 +6232,30 @@
         <v>32</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="T64">
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>70</v>
@@ -6030,14 +6272,14 @@
       <c r="K65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>95</v>
+      <c r="L65" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O65" s="2">
         <v>44684</v>
@@ -6052,33 +6294,33 @@
         <v>32</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="T65">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H66">
         <v>2017</v>
@@ -6092,14 +6334,14 @@
       <c r="K66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>95</v>
+      <c r="L66" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O66" s="2">
         <v>44694</v>
@@ -6114,33 +6356,33 @@
         <v>32</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="T66">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H67">
         <v>2012</v>
@@ -6154,14 +6396,14 @@
       <c r="K67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L67" s="1" t="s">
-        <v>95</v>
+      <c r="L67" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O67" s="2">
         <v>44682</v>
@@ -6176,33 +6418,33 @@
         <v>32</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="T67">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H68">
         <v>2018</v>
@@ -6216,14 +6458,14 @@
       <c r="K68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L68" s="1" t="s">
-        <v>95</v>
+      <c r="L68" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="O68" s="2">
         <v>44694</v>
@@ -6238,33 +6480,33 @@
         <v>32</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="T68">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="H69">
         <v>2019</v>
@@ -6278,14 +6520,14 @@
       <c r="K69" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L69" s="1" t="s">
-        <v>95</v>
+      <c r="L69" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="O69" s="2">
         <v>44700</v>
@@ -6300,33 +6542,33 @@
         <v>32</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="T69">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="G70" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H70">
         <v>2020</v>
@@ -6340,14 +6582,14 @@
       <c r="K70" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L70" s="1" t="s">
-        <v>95</v>
+      <c r="L70" s="4" t="s">
+        <v>501</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O70" s="2">
         <v>44701</v>
@@ -6362,33 +6604,33 @@
         <v>32</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="T70">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="H71">
         <v>2018</v>
@@ -6402,14 +6644,14 @@
       <c r="K71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L71" s="1" t="s">
-        <v>95</v>
+      <c r="L71" s="4" t="s">
+        <v>502</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="O71" s="2">
         <v>44693</v>
@@ -6424,30 +6666,30 @@
         <v>32</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="T71">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>70</v>
@@ -6459,19 +6701,19 @@
         <v>71</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L72" s="1" t="s">
-        <v>418</v>
+      <c r="L72" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="O72" s="2">
         <v>44702</v>
@@ -6486,33 +6728,33 @@
         <v>32</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="T72">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H73">
         <v>2013</v>
@@ -6524,16 +6766,16 @@
         <v>27</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>504</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="O73" s="2">
         <v>44682</v>
@@ -6548,33 +6790,33 @@
         <v>32</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="T73">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H74">
         <v>2013</v>
@@ -6586,16 +6828,16 @@
         <v>27</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="O74" s="2">
         <v>44687</v>
@@ -6610,33 +6852,33 @@
         <v>32</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="T74">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="H75">
         <v>2018</v>
@@ -6650,14 +6892,14 @@
       <c r="K75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L75" s="1" t="s">
-        <v>95</v>
+      <c r="L75" s="4" t="s">
+        <v>564</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O75" s="2">
         <v>44690</v>
@@ -6672,33 +6914,33 @@
         <v>32</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="T75">
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H76">
         <v>2020</v>
@@ -6712,14 +6954,14 @@
       <c r="K76" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L76" s="1" t="s">
-        <v>95</v>
+      <c r="L76" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O76" s="2">
         <v>44688</v>
@@ -6734,33 +6976,33 @@
         <v>32</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="T76">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H77">
         <v>2018</v>
@@ -6772,16 +7014,16 @@
         <v>27</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O77" s="2">
         <v>44699</v>
@@ -6796,33 +7038,33 @@
         <v>32</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="T77">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H78">
         <v>2015</v>
@@ -6834,16 +7076,16 @@
         <v>27</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="O78" s="2">
         <v>44687</v>
@@ -6858,33 +7100,33 @@
         <v>32</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="T78">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H79">
         <v>2018</v>
@@ -6896,16 +7138,16 @@
         <v>27</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>568</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O79" s="2">
         <v>44685</v>
@@ -6920,33 +7162,33 @@
         <v>32</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="T79">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H80">
         <v>2016</v>
@@ -6960,14 +7202,14 @@
       <c r="K80" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L80" s="1" t="s">
-        <v>95</v>
+      <c r="L80" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="O80" s="2">
         <v>44694</v>
@@ -6982,33 +7224,33 @@
         <v>32</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="T80">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H81">
         <v>2017</v>
@@ -7020,16 +7262,16 @@
         <v>27</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O81" s="2">
         <v>44682</v>
@@ -7044,33 +7286,33 @@
         <v>32</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="T81">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H82">
         <v>2013</v>
@@ -7084,14 +7326,14 @@
       <c r="K82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>95</v>
+      <c r="L82" s="4" t="s">
+        <v>525</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O82" s="2">
         <v>44683</v>
@@ -7106,33 +7348,33 @@
         <v>32</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="T82">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H83">
         <v>2018</v>
@@ -7146,14 +7388,14 @@
       <c r="K83" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L83" s="1" t="s">
-        <v>95</v>
+      <c r="L83" s="4" t="s">
+        <v>526</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="O83" s="2">
         <v>44689</v>
@@ -7168,33 +7410,33 @@
         <v>32</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="T83">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H84">
         <v>2018</v>
@@ -7208,14 +7450,14 @@
       <c r="K84" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L84" s="1" t="s">
-        <v>95</v>
+      <c r="L84" s="4" t="s">
+        <v>527</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="O84" s="2">
         <v>44687</v>
@@ -7230,33 +7472,33 @@
         <v>32</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="T84">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H85">
         <v>2019</v>
@@ -7270,14 +7512,14 @@
       <c r="K85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="L85" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="M85" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M85" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="N85" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="O85" s="2">
         <v>44697</v>
@@ -7292,33 +7534,33 @@
         <v>32</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="T85">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H86">
         <v>2006</v>
@@ -7330,16 +7572,16 @@
         <v>27</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O86" s="2">
         <v>44686</v>
@@ -7354,33 +7596,33 @@
         <v>32</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="T86">
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H87">
         <v>2010</v>
@@ -7394,14 +7636,14 @@
       <c r="K87" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L87" s="1" t="s">
-        <v>95</v>
+      <c r="L87" s="4" t="s">
+        <v>547</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O87" s="2">
         <v>44686</v>
@@ -7416,33 +7658,33 @@
         <v>32</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="T87">
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H88">
         <v>2004</v>
@@ -7454,16 +7696,16 @@
         <v>27</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>548</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="O88" s="2">
         <v>44683</v>
@@ -7478,39 +7720,39 @@
         <v>32</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="T88">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H89">
         <v>2017</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>27</v>
@@ -7518,14 +7760,14 @@
       <c r="K89" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L89" s="1" t="s">
-        <v>95</v>
+      <c r="L89" s="4" t="s">
+        <v>549</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="O89" s="2">
         <v>44691</v>
@@ -7540,1437 +7782,106 @@
         <v>32</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="T89">
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S90" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R91" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S91" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S93" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S94" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S95" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S96" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R97" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S97" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S99" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S100" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S101" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R103" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S103" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S104" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R105" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S105" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S106" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S107" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S108" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R109" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S109" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R110" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S110" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S111" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R112" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S112" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S113" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R114" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S114" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="115" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S115" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R116" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S116" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S117" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R118" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S118" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L24" r:id="rId1" xr:uid="{69637023-3ED9-4E64-A4C1-9808117A2BC6}"/>
+    <hyperlink ref="L9" r:id="rId2" xr:uid="{8F2AD235-8E75-4062-8681-120941782D21}"/>
+    <hyperlink ref="L8" r:id="rId3" xr:uid="{73A59A4A-4AD3-4091-983C-401F9F1E2E96}"/>
+    <hyperlink ref="L7" r:id="rId4" xr:uid="{F47158B3-5540-46C4-857E-BAF8338ECC2F}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{53D25D0F-3ABB-4FD6-9E4F-2657C358F90E}"/>
+    <hyperlink ref="L5" r:id="rId6" xr:uid="{BC188678-441F-490E-8BE3-AFAD8D3352BA}"/>
+    <hyperlink ref="L25" r:id="rId7" xr:uid="{634A906E-1093-4B58-B623-24F679EA7CA3}"/>
+    <hyperlink ref="L26" r:id="rId8" xr:uid="{6A0D61E7-42FF-482D-B154-69F00728F9FD}"/>
+    <hyperlink ref="L15" r:id="rId9" xr:uid="{682EC0EC-37A5-4ABC-AC52-1545AA628437}"/>
+    <hyperlink ref="L16" r:id="rId10" xr:uid="{DB40816F-F6E6-4F6D-87B6-41309255C6B7}"/>
+    <hyperlink ref="L35" r:id="rId11" xr:uid="{067AE2FA-0B10-4DB5-9013-FB7017487B0D}"/>
+    <hyperlink ref="L36" r:id="rId12" xr:uid="{C801C8C3-A8FD-4712-8BB8-B43B9F721348}"/>
+    <hyperlink ref="L37" r:id="rId13" xr:uid="{D501896C-59BA-4D8F-8450-BECC79029E2C}"/>
+    <hyperlink ref="L70" r:id="rId14" xr:uid="{974E9B5A-BDD5-41C7-8716-211CFAF6C6AA}"/>
+    <hyperlink ref="L71" r:id="rId15" xr:uid="{4D82CE58-D452-4582-A376-7E2C697DABB5}"/>
+    <hyperlink ref="L72" r:id="rId16" xr:uid="{5B6EC89E-368C-4EE6-A23E-316FDE433EF8}"/>
+    <hyperlink ref="L73" r:id="rId17" xr:uid="{4648294B-824C-4512-8217-F07D303AD166}"/>
+    <hyperlink ref="L74" r:id="rId18" xr:uid="{6CFFD201-448B-456A-84E0-F1C33C2A2B8D}"/>
+    <hyperlink ref="L50" r:id="rId19" xr:uid="{2298D295-A14D-4C52-AB20-810CA987B020}"/>
+    <hyperlink ref="L51" r:id="rId20" xr:uid="{502BC879-C3AA-4CFD-8F41-1DA1003FEB7C}"/>
+    <hyperlink ref="L64" r:id="rId21" xr:uid="{8E4783A1-4F46-44CA-A61A-491255D20EC8}"/>
+    <hyperlink ref="L65" r:id="rId22" xr:uid="{B950EA6B-4461-4C96-8E39-68DC26AC256D}"/>
+    <hyperlink ref="L66" r:id="rId23" xr:uid="{7D9730E0-CDC5-4690-8A51-F7C97C8AF9E6}"/>
+    <hyperlink ref="L67" r:id="rId24" xr:uid="{15D99D85-6311-4C52-AF7B-4D83CE9E2552}"/>
+    <hyperlink ref="L68" r:id="rId25" xr:uid="{572EE817-2549-43F6-9CC6-A9C430B68E18}"/>
+    <hyperlink ref="L69" r:id="rId26" xr:uid="{AFDD4CE6-96A4-46C7-AEF2-CFC6DF28CC70}"/>
+    <hyperlink ref="L59" r:id="rId27" xr:uid="{60117DBF-E697-432B-B502-321F9EF0250A}"/>
+    <hyperlink ref="L60" r:id="rId28" xr:uid="{0DEAAFBD-D31A-43A2-97EB-CEF782F3E411}"/>
+    <hyperlink ref="L61" r:id="rId29" xr:uid="{4351DAAC-30F4-46BF-A417-4095A9C5BD1C}"/>
+    <hyperlink ref="L33" r:id="rId30" xr:uid="{C9CAAB59-E58D-4EAD-8E0A-4933A9182124}"/>
+    <hyperlink ref="L34" r:id="rId31" xr:uid="{4364DB44-CA0D-4AA9-8A3B-952319AF4FA7}"/>
+    <hyperlink ref="L52" r:id="rId32" xr:uid="{877245A3-FE20-473F-B499-BD8C87A3D64E}"/>
+    <hyperlink ref="L53" r:id="rId33" xr:uid="{F0384DE5-F779-47FF-8FE7-0CBCEA8FBBB4}"/>
+    <hyperlink ref="L54" r:id="rId34" xr:uid="{9A63FD9A-BA68-4EAE-B0DC-B96E00F5E461}"/>
+    <hyperlink ref="L55" r:id="rId35" xr:uid="{C86E266C-2087-44B7-A1A5-83BC9BC970C0}"/>
+    <hyperlink ref="L80" r:id="rId36" xr:uid="{71D2501D-990C-4E4F-918E-630CA040938D}"/>
+    <hyperlink ref="L81" r:id="rId37" xr:uid="{B079333D-D330-4F4A-A2DE-004694E3B751}"/>
+    <hyperlink ref="L82" r:id="rId38" xr:uid="{E2677558-0C20-4877-85F0-114965B97570}"/>
+    <hyperlink ref="L83" r:id="rId39" xr:uid="{14813600-C629-4AD6-9426-D9587A57CEFA}"/>
+    <hyperlink ref="L84" r:id="rId40" xr:uid="{AC7240C6-C2B2-4762-9804-C19DF2CF3958}"/>
+    <hyperlink ref="L17" r:id="rId41" xr:uid="{1B547548-539E-4D37-B540-5DD0BCE6FBB7}"/>
+    <hyperlink ref="L18" r:id="rId42" xr:uid="{8D176AD1-53D6-48D6-AA6C-C6DACD9CA725}"/>
+    <hyperlink ref="L19" r:id="rId43" xr:uid="{A7C5B3BB-1AFA-4028-9C92-9C56D1681603}"/>
+    <hyperlink ref="L47" r:id="rId44" xr:uid="{9E2A6A73-C291-4682-8D26-AFE917DE20BE}"/>
+    <hyperlink ref="L48" r:id="rId45" xr:uid="{C611401F-BFCE-46CB-AB94-385642D50509}"/>
+    <hyperlink ref="L49" r:id="rId46" xr:uid="{7582D78A-9EC5-4824-9BB5-010D64BA0A20}"/>
+    <hyperlink ref="L38" r:id="rId47" xr:uid="{88B36B87-9370-434C-B73D-46AE56518CBC}"/>
+    <hyperlink ref="L39" r:id="rId48" xr:uid="{1C59D169-A4A2-4489-B349-FB81767A0448}"/>
+    <hyperlink ref="L10" r:id="rId49" xr:uid="{6F0B9222-EBC7-449A-95EA-788D8BE20F5C}"/>
+    <hyperlink ref="L11" r:id="rId50" xr:uid="{A26A54A0-08DE-426E-AAA7-C9DE02631B9A}"/>
+    <hyperlink ref="L40" r:id="rId51" xr:uid="{62167813-80F6-4B4A-8AC3-861663ADC832}"/>
+    <hyperlink ref="L41" r:id="rId52" xr:uid="{FF556DEB-6B2B-451A-B325-107B815E8748}"/>
+    <hyperlink ref="L21" r:id="rId53" xr:uid="{73AE007F-5B7B-4DDC-9BD6-9366A600FB7B}"/>
+    <hyperlink ref="L29" r:id="rId54" xr:uid="{50C37A71-653E-4B02-A947-D4226D990903}"/>
+    <hyperlink ref="L30" r:id="rId55" xr:uid="{087AC481-30B4-40F0-8DA9-815BF1310A82}"/>
+    <hyperlink ref="L31" r:id="rId56" xr:uid="{7025DFA1-101E-4428-91C9-89E796F8F54E}"/>
+    <hyperlink ref="L32" r:id="rId57" xr:uid="{425DB545-B302-48DA-9B9C-32CAFFECAB8E}"/>
+    <hyperlink ref="L85" r:id="rId58" xr:uid="{4F743274-7061-4DBF-AB74-B84349CF10CF}"/>
+    <hyperlink ref="L86" r:id="rId59" xr:uid="{DFEDAF77-26AB-4F8A-8B85-1D1B5E0F61D3}"/>
+    <hyperlink ref="L87" r:id="rId60" xr:uid="{9D81E32E-3B34-479E-AACA-205EC6017797}"/>
+    <hyperlink ref="L88" r:id="rId61" xr:uid="{66275CFC-BE92-47E7-8A97-B037A1E28BC6}"/>
+    <hyperlink ref="L89" r:id="rId62" xr:uid="{9D9BCE9C-A6C2-4F9C-A3B7-E29AAA6D6CF7}"/>
+    <hyperlink ref="L20" r:id="rId63" xr:uid="{6ED34631-AF5C-43F5-8BC5-349BF9792571}"/>
+    <hyperlink ref="L56" r:id="rId64" xr:uid="{3E1FF2C8-0801-4CCB-B181-C89B306568F7}"/>
+    <hyperlink ref="L57" r:id="rId65" xr:uid="{156BD71F-E8DC-433F-8305-BA1B36639BEC}"/>
+    <hyperlink ref="L58" r:id="rId66" xr:uid="{D135FDD0-91EA-4261-8B1C-2640C1B56A1B}"/>
+    <hyperlink ref="L12" r:id="rId67" xr:uid="{62F4444A-BE29-43FA-9F57-1454F42ADDCD}"/>
+    <hyperlink ref="L13" r:id="rId68" xr:uid="{D6FCB09C-5D39-49DB-9303-169076C3F07A}"/>
+    <hyperlink ref="L14" r:id="rId69" xr:uid="{C5E15F57-6777-47B5-8502-FFC8E6FCB49F}"/>
+    <hyperlink ref="L42" r:id="rId70" xr:uid="{0F173ECC-B2E9-4ACA-9E5B-6607DDFB30C5}"/>
+    <hyperlink ref="L43" r:id="rId71" xr:uid="{E186E5C3-0DDB-49D3-8D45-F43E3D9F0DE3}"/>
+    <hyperlink ref="L44" r:id="rId72" xr:uid="{DC9909FB-82FC-4F53-A978-69B5854E4A89}"/>
+    <hyperlink ref="L22" r:id="rId73" xr:uid="{67233787-3DF1-418E-8B9C-005EA07E7362}"/>
+    <hyperlink ref="L23" r:id="rId74" xr:uid="{03F9223C-AFE0-4B73-850B-5BF33510BDCD}"/>
+    <hyperlink ref="L62" r:id="rId75" xr:uid="{EDB79AF5-96E2-42C9-89D5-014B48303885}"/>
+    <hyperlink ref="L63" r:id="rId76" xr:uid="{1CC45ABF-92E1-4B1C-92D6-2AB180CC789D}"/>
+    <hyperlink ref="L75" r:id="rId77" xr:uid="{3E3833EF-62FD-4F2B-B344-50D9C2DE6A1B}"/>
+    <hyperlink ref="L76" r:id="rId78" xr:uid="{3FDAB974-B0BC-48B6-93A1-97113E1AA1EB}"/>
+    <hyperlink ref="L77" r:id="rId79" xr:uid="{2A172E65-D84B-4F49-A0AC-6BA6C5AA5F91}"/>
+    <hyperlink ref="L78" r:id="rId80" xr:uid="{5825342B-2124-42A9-B6BA-CC2CC2535543}"/>
+    <hyperlink ref="L79" r:id="rId81" xr:uid="{8E64C159-C57C-4DCD-8A25-344C3F6A5BAC}"/>
+    <hyperlink ref="L27" r:id="rId82" xr:uid="{9B15D368-54D1-4816-BE30-9E3D102DCD2E}"/>
+    <hyperlink ref="L28" r:id="rId83" xr:uid="{F20B3727-5082-4B36-B9A8-815645F21036}"/>
+    <hyperlink ref="L45" r:id="rId84" xr:uid="{44D9F276-39C1-4F11-9469-2EE97DEAD094}"/>
+    <hyperlink ref="L46" r:id="rId85" xr:uid="{8BE43984-AE3A-4EB2-8873-CAC9445E860F}"/>
+    <hyperlink ref="L2" r:id="rId86" xr:uid="{11BF141E-2278-4A1E-B7D1-AEC377CD568D}"/>
+    <hyperlink ref="L3" r:id="rId87" xr:uid="{371B2824-BC83-44D8-8562-ED6A1CAA9D0E}"/>
+    <hyperlink ref="L4" r:id="rId88" xr:uid="{5364FED2-5545-4B77-AF66-D405A4CBC2E3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId89"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8981,7 +7892,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
